--- a/doc/MES防错料系统的计划统计.xlsx
+++ b/doc/MES防错料系统的计划统计.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>MES防错料系统的问题点统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,31 +143,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>SMT产线操作员需要开通全检物料的权限，我司目前的品质和操作员各两个小时全检一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需物料盘软件做修改后才能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每两个小时的全检物料项目，要求设置成为没有全检物料生产无法生产（控制接驳台的信号，未扫描就信号断开）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因此功能可能会影响生产，待开会商榷后再决定是否增加此功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作员换料后5分钟内IPQC需要检查，未检查报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作员的换料后，需要在IPQC的抽检界面体现出来显示为红色，在IPQC抽检后显示为绿色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要以何种方式报警，待确定报警方式后商榷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已确定不将一体机操作页面显示在电脑上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>暂不做修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMT产线操作员需要开通全检物料的权限，我司目前的品质和操作员各两个小时全检一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂不做修改，相对应的权限是为了方便当前工种的工作并且监督他人。功能模块划分要清晰。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需物料盘软件做修改后才能实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每两个小时的全检物料项目，要求设置成为没有全检物料生产无法生产（控制接驳台的信号，未扫描就信号断开）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>因此功能可能会影响生产，待开会商榷后再决定是否增加此功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -274,7 +287,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -337,6 +350,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -658,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -676,14 +692,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" s="14" customFormat="1" ht="20" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -702,11 +718,11 @@
         <v>3</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="21">
+      <c r="A3" s="22">
         <v>43032</v>
       </c>
       <c r="B3" s="2">
@@ -724,7 +740,7 @@
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" ht="31" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -740,7 +756,7 @@
       <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" ht="39.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -756,7 +772,7 @@
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -770,7 +786,7 @@
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -786,7 +802,7 @@
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -802,7 +818,7 @@
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" ht="28" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -814,11 +830,11 @@
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="31" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -832,7 +848,7 @@
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" ht="32.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="3">
         <v>9</v>
       </c>
@@ -842,13 +858,13 @@
       <c r="D11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
+      <c r="A12" s="22">
         <v>43034</v>
       </c>
       <c r="B12" s="3">
@@ -864,7 +880,7 @@
       <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" ht="37" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="3">
         <v>11</v>
       </c>
@@ -874,11 +890,13 @@
       <c r="D13" s="10">
         <v>43038</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="7">
+        <v>43038</v>
+      </c>
       <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6" ht="38.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="3">
         <v>12</v>
       </c>
@@ -891,8 +909,8 @@
       <c r="E14" s="3"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:6" ht="23.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
+    <row r="15" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22"/>
       <c r="B15" s="3">
         <v>13</v>
       </c>
@@ -902,11 +920,13 @@
       <c r="D15" s="10">
         <v>43041</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="3">
         <v>14</v>
       </c>
@@ -914,12 +934,12 @@
         <v>25</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:6" ht="67" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>43036</v>
       </c>
@@ -927,10 +947,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="D17" s="21">
+        <v>43047</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="9"/>
@@ -943,12 +963,42 @@
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="20"/>
+    </row>
+    <row r="19" spans="1:6" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="19">
+        <v>43042</v>
+      </c>
+      <c r="B19" s="20">
+        <v>17</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="20"/>
+    </row>
+    <row r="20" spans="1:6" customFormat="1" ht="36.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="19">
+        <v>43042</v>
+      </c>
+      <c r="B20" s="20">
+        <v>18</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="20"/>
+      <c r="D20" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
